--- a/REGULAR/ONT/EMELO MARY JANE.xlsx
+++ b/REGULAR/ONT/EMELO MARY JANE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="382">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1173,6 +1173,12 @@
   </si>
   <si>
     <t>10/12,13/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2/1-2/2024</t>
   </si>
 </sst>
 </file>
@@ -1865,8 +1871,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K526" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K526"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K527" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K527"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2195,12 +2201,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K526"/>
+  <dimension ref="A2:K527"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A484" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="N501" sqref="N501"/>
+      <selection pane="bottomLeft" activeCell="K503" sqref="K503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2363,7 +2369,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>91.090000000000032</v>
+        <v>91.590000000000032</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2373,7 +2379,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>26.75</v>
+        <v>29.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13527,13 +13533,15 @@
         <v>45231</v>
       </c>
       <c r="B500" s="20"/>
-      <c r="C500" s="13"/>
+      <c r="C500" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D500" s="39"/>
       <c r="E500" s="9"/>
       <c r="F500" s="20"/>
-      <c r="G500" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G500" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H500" s="39"/>
       <c r="I500" s="9"/>
@@ -13545,13 +13553,15 @@
         <v>45261</v>
       </c>
       <c r="B501" s="20"/>
-      <c r="C501" s="13"/>
+      <c r="C501" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D501" s="39"/>
       <c r="E501" s="9"/>
       <c r="F501" s="20"/>
-      <c r="G501" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G501" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H501" s="39"/>
       <c r="I501" s="9"/>
@@ -13559,8 +13569,8 @@
       <c r="K501" s="20"/>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A502" s="40">
-        <v>45292</v>
+      <c r="A502" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -13578,11 +13588,15 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B503" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B503" s="20" t="s">
+        <v>140</v>
+      </c>
       <c r="C503" s="13"/>
-      <c r="D503" s="39"/>
+      <c r="D503" s="39">
+        <v>2</v>
+      </c>
       <c r="E503" s="9"/>
       <c r="F503" s="20"/>
       <c r="G503" s="13" t="str">
@@ -13592,11 +13606,13 @@
       <c r="H503" s="39"/>
       <c r="I503" s="9"/>
       <c r="J503" s="11"/>
-      <c r="K503" s="20"/>
+      <c r="K503" s="20" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -13614,7 +13630,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -13632,7 +13648,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -13650,7 +13666,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -13668,7 +13684,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -13686,7 +13702,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -13704,7 +13720,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -13721,7 +13737,9 @@
       <c r="K510" s="20"/>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A511" s="40"/>
+      <c r="A511" s="40">
+        <v>45536</v>
+      </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
       <c r="D511" s="39"/>
@@ -13961,20 +13979,36 @@
       <c r="K525" s="20"/>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A526" s="41"/>
-      <c r="B526" s="15"/>
-      <c r="C526" s="42"/>
-      <c r="D526" s="43"/>
+      <c r="A526" s="40"/>
+      <c r="B526" s="20"/>
+      <c r="C526" s="13"/>
+      <c r="D526" s="39"/>
       <c r="E526" s="9"/>
-      <c r="F526" s="15"/>
-      <c r="G526" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H526" s="43"/>
+      <c r="F526" s="20"/>
+      <c r="G526" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H526" s="39"/>
       <c r="I526" s="9"/>
-      <c r="J526" s="12"/>
-      <c r="K526" s="15"/>
+      <c r="J526" s="11"/>
+      <c r="K526" s="20"/>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A527" s="41"/>
+      <c r="B527" s="15"/>
+      <c r="C527" s="42"/>
+      <c r="D527" s="43"/>
+      <c r="E527" s="9"/>
+      <c r="F527" s="15"/>
+      <c r="G527" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H527" s="43"/>
+      <c r="I527" s="9"/>
+      <c r="J527" s="12"/>
+      <c r="K527" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14141,7 +14175,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>117.84000000000003</v>
+        <v>120.84000000000003</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
